--- a/tests/mpin_logs.xlsx
+++ b/tests/mpin_logs.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
@@ -1860,6 +1860,44 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:42:17</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>19 10 2004</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20 02 2005</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>11 20 2024</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>STRONG</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
